--- a/Python_Files/Dataset/Final_Disease_Weather_Dataset.xlsx
+++ b/Python_Files/Dataset/Final_Disease_Weather_Dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="237">
   <si>
     <t>Disease</t>
   </si>
@@ -262,7 +262,7 @@
     <t>Migraine</t>
   </si>
   <si>
-    <t xml:space="preserve">	La migraña es un tipo de dolor de cabeza intenso que puede venir acompañado de náuseas, sensibilidad a la luz y al sonido.	</t>
+    <t xml:space="preserve"> La migraña es un tipo de dolor de cabeza intenso que puede venir acompañado de náuseas, sensibilidad a la luz y al sonido. </t>
   </si>
   <si>
     <t>Identificar y evitar los desencadenantes, mantener un horario de sueño regular, practicar técnicas de relajación y tomar medicamentos según lo prescrito.</t>
@@ -280,7 +280,7 @@
     <t>Sinusitis</t>
   </si>
   <si>
-    <t xml:space="preserve">	La sinusitis es una inflamación o hinchazón de los tejidos que recubren los senos paranasales, a menudo causada por una infección.</t>
+    <t xml:space="preserve"> La sinusitis es una inflamación o hinchazón de los tejidos que recubren los senos paranasales, a menudo causada por una infección.</t>
   </si>
   <si>
     <t>Usar humidificadores, realizar lavados nasales con solución salina, descansar y seguir el tratamiento médico prescrito.</t>
@@ -563,6 +563,168 @@
   </si>
   <si>
     <t>Realizar ejercicios de carga y fortalecimiento, asegurar una ingesta adecuada de calcio y vitamina D, evitar el tabaco y el exceso de alcohol, y tomar medicamentos según lo prescrito.</t>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+  </si>
+  <si>
+    <t>Descripción no disponible</t>
+  </si>
+  <si>
+    <t>Recomendaciones no disponibles</t>
+  </si>
+  <si>
+    <t>Lung Cancer</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder (ASD)</t>
+  </si>
+  <si>
+    <t>Crohn's Disease</t>
+  </si>
+  <si>
+    <t>Hyperglycemia</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>Turner Syndrome</t>
+  </si>
+  <si>
+    <t>Cataracts</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Pneumocystis Pneumonia (PCP)</t>
+  </si>
+  <si>
+    <t>Scoliosis</t>
+  </si>
+  <si>
+    <t>Sickle Cell Anemia</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>Sleep Apnea</t>
+  </si>
+  <si>
+    <t>Down Syndrome</t>
+  </si>
+  <si>
+    <t>Ebola Virus</t>
+  </si>
+  <si>
+    <t>Klinefelter Syndrome</t>
+  </si>
+  <si>
+    <t>Lyme Disease</t>
+  </si>
+  <si>
+    <t>Pancreatic Cancer</t>
+  </si>
+  <si>
+    <t>Pneumothorax</t>
+  </si>
+  <si>
+    <t>Appendicitis</t>
+  </si>
+  <si>
+    <t>Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Marfan Syndrome</t>
+  </si>
+  <si>
+    <t>Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>Hemorrhoids</t>
+  </si>
+  <si>
+    <t>Polycystic Ovary Syndrome (PCOS)</t>
+  </si>
+  <si>
+    <t>Systemic Lupus Erythematosus...</t>
+  </si>
+  <si>
+    <t>Typhoid Fever</t>
+  </si>
+  <si>
+    <t>Prader-Willi Syndrome</t>
+  </si>
+  <si>
+    <t>Thyroid Cancer</t>
+  </si>
+  <si>
+    <t>Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Otitis Media (Ear Infection)</t>
+  </si>
+  <si>
+    <t>Tourette Syndrome</t>
+  </si>
+  <si>
+    <t>Urinary Tract Infection (UTI)</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Chronic Obstructive Pulmonary Disease (COPD)</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Diverticulitis</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>Cholecystitis</t>
+  </si>
+  <si>
+    <t>Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Gout</t>
+  </si>
+  <si>
+    <t>Testicular Cancer</t>
+  </si>
+  <si>
+    <t>Tonsillitis</t>
+  </si>
+  <si>
+    <t>Williams Syndrome</t>
   </si>
 </sst>
 </file>
@@ -587,7 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -956,7 +1118,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M350"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1018,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1182,7 +1344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1264,7 +1426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1387,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1428,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1633,7 +1795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -1674,7 +1836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -1715,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1756,7 +1918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -7128,634 +7290,8204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
+      <c r="A151" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="4">
+        <v>42</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="4">
+        <v>42</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
+      <c r="A153" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="4">
+        <v>42</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
+      <c r="A154" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="4">
+        <v>42</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="4">
+        <v>42</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
+      <c r="A156" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="4">
+        <v>42</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
+      <c r="A157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="4">
+        <v>42</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
+      <c r="A158" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="4">
+        <v>42</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="4">
+        <v>42</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="4">
+        <v>42</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
+      <c r="A161" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="4">
+        <v>43</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
+      <c r="A162" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="4">
+        <v>45</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
+      <c r="A163" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="4">
+        <v>45</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="4">
+        <v>45</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="4">
+        <v>45</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="4">
+        <v>45</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
+      <c r="A167" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="4">
+        <v>45</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="4">
+        <v>45</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="4">
+        <v>45</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="4">
+        <v>45</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="4">
+        <v>45</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="4">
+        <v>45</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="4">
+        <v>45</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="4">
+        <v>45</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="4">
+        <v>45</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="4">
+        <v>45</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="4">
+        <v>45</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="4">
+        <v>45</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="4">
+        <v>45</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="4">
+        <v>45</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
+      <c r="A181" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="4">
+        <v>45</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="4">
+        <v>45</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="4">
+        <v>45</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="4">
+        <v>45</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="4">
+        <v>45</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="4">
+        <v>45</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="4">
+        <v>45</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
+      <c r="A188" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="4">
+        <v>45</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
+      <c r="A189" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="4">
+        <v>45</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
+      <c r="A190" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="4">
+        <v>45</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="4">
+        <v>45</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
+      <c r="A192" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="4">
+        <v>45</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="4">
+        <v>45</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="4">
+        <v>45</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="4">
+        <v>45</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="4">
+        <v>45</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="4">
+        <v>45</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="4">
+        <v>45</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="4">
+        <v>45</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="4">
+        <v>45</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="4">
+        <v>45</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" s="4">
+        <v>45</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="4">
+        <v>45</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="4">
+        <v>48</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="4">
+        <v>48</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" s="4">
+        <v>48</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" s="4">
+        <v>50</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="4">
+        <v>50</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" s="4">
+        <v>50</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="4">
+        <v>50</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="4">
+        <v>50</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="4">
+        <v>50</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="4">
+        <v>50</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="4">
+        <v>50</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="A215" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="4">
+        <v>50</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="A216" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" s="4">
+        <v>50</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="A217" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="4">
+        <v>50</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="A218" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" s="4">
+        <v>50</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="A219" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="4">
+        <v>50</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="A220" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="4">
+        <v>50</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="A221" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="4">
+        <v>50</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="A222" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" s="4">
+        <v>50</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="A223" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="4">
+        <v>50</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="A224" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="4">
+        <v>50</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="A225" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="4">
+        <v>50</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="4">
+        <v>50</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="A227" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="4">
+        <v>50</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="A228" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" s="4">
+        <v>50</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="A229" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="4">
+        <v>50</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="A230" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="4">
+        <v>50</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="A231" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" s="4">
+        <v>50</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="A232" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="4">
+        <v>50</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="A233" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" s="4">
+        <v>50</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="A234" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="4">
+        <v>50</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="A235" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F235" s="4">
+        <v>50</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="A236" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" s="4">
+        <v>50</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="A237" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" s="4">
+        <v>50</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="A238" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="4">
+        <v>50</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="A239" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="4">
+        <v>50</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="A240" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240" s="4">
+        <v>50</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="A241" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241" s="4">
+        <v>52</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="A242" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="4">
+        <v>52</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="A243" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F243" s="4">
+        <v>52</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="A244" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" s="4">
+        <v>55</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="A245" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="4">
+        <v>55</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="A246" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="4">
+        <v>55</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="A247" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="4">
+        <v>55</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" s="4">
+        <v>55</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" s="4">
+        <v>55</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="A250" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="4">
+        <v>55</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="A251" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="4">
+        <v>55</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="A252" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" s="4">
+        <v>55</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="A253" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="4">
+        <v>55</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="A254" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" s="4">
+        <v>55</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="A255" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="4">
+        <v>55</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="A256" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="4">
+        <v>55</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="A257" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" s="4">
+        <v>55</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="A258" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="4">
+        <v>55</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="A259" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" s="4">
+        <v>55</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="A260" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" s="4">
+        <v>55</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="A261" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F261" s="4">
+        <v>55</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F262" s="4">
+        <v>55</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F263" s="4">
+        <v>55</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="A264" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F264" s="4">
+        <v>55</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="A265" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="4">
+        <v>55</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="A266" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="4">
+        <v>55</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="4">
+        <v>55</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="A268" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F268" s="4">
+        <v>55</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="A269" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F269" s="4">
+        <v>55</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="A270" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" s="4">
+        <v>55</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="A271" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" s="4">
+        <v>55</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="A272" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="4">
+        <v>55</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="4">
+        <v>55</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="4">
+        <v>56</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" s="4">
+        <v>57</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="4">
+        <v>60</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="4">
+        <v>60</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="A278" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="4">
+        <v>60</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="A279" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="4">
+        <v>60</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="A280" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" s="4">
+        <v>60</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="A281" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="4">
+        <v>60</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="A282" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F282" s="4">
+        <v>60</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="A283" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" s="4">
+        <v>60</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="A284" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" s="4">
+        <v>60</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="A285" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="4">
+        <v>60</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="A286" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" s="4">
+        <v>60</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M286" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="A287" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" s="4">
+        <v>60</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="A288" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="4">
+        <v>60</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="A289" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F289" s="4">
+        <v>60</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="A290" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="4">
+        <v>60</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="A291" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" s="4">
+        <v>60</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="A292" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="4">
+        <v>60</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="A293" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F293" s="4">
+        <v>60</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="A294" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" s="4">
+        <v>60</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="A295" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F295" s="4">
+        <v>60</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="A296" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F296" s="4">
+        <v>60</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="A297" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="4">
+        <v>60</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="A298" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="4">
+        <v>60</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="A299" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" s="4">
+        <v>60</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="A300" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F300" s="4">
+        <v>60</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="A301" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F301" s="4">
+        <v>60</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="A302" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="4">
+        <v>60</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="A303" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" s="4">
+        <v>60</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M303" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="A304" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" s="4">
+        <v>60</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="A305" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="4">
+        <v>60</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="A306" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F306" s="4">
+        <v>65</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="A307" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F307" s="4">
+        <v>65</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="A308" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="4">
+        <v>65</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="A309" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F309" s="4">
+        <v>65</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="A310" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" s="4">
+        <v>65</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="A311" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F311" s="4">
+        <v>65</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="A312" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F312" s="4">
+        <v>65</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="A313" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="4">
+        <v>65</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="A314" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F314" s="4">
+        <v>65</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="A315" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F315" s="4">
+        <v>65</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="A316" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F316" s="4">
+        <v>65</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="A317" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F317" s="4">
+        <v>65</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="A318" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F318" s="4">
+        <v>65</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M318" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="A319" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F319" s="4">
+        <v>65</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="A320" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F320" s="4">
+        <v>65</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F321" s="4">
+        <v>65</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+      <c r="A322" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F322" s="4">
+        <v>65</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+      <c r="A323" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F323" s="4">
+        <v>65</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
+      <c r="A324" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F324" s="4">
+        <v>65</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
+      <c r="A325" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" s="4">
+        <v>65</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+      <c r="A326" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F326" s="4">
+        <v>65</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
+      <c r="A327" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" s="4">
+        <v>65</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+      <c r="A328" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F328" s="4">
+        <v>65</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M328" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+      <c r="A329" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F329" s="4">
+        <v>70</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M329" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
+      <c r="A330" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F330" s="4">
+        <v>70</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M330" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+      <c r="A331" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F331" s="4">
+        <v>70</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+      <c r="A332" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="4">
+        <v>70</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M332" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+      <c r="A333" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="4">
+        <v>70</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M333" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+      <c r="A334" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F334" s="4">
+        <v>70</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M334" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+      <c r="A335" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F335" s="4">
+        <v>70</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
+      <c r="A336" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F336" s="4">
+        <v>70</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
+      <c r="A337" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F337" s="4">
+        <v>70</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M337" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
+      <c r="A338" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F338" s="4">
+        <v>70</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
+      <c r="A339" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F339" s="4">
+        <v>70</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M339" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
+      <c r="A340" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F340" s="4">
+        <v>70</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
+      <c r="A341" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F341" s="4">
+        <v>70</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
+      <c r="A342" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="4">
+        <v>70</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
+      <c r="A343" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F343" s="4">
+        <v>70</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+      <c r="A344" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="4">
+        <v>70</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+      <c r="A345" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F345" s="4">
+        <v>80</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
+      <c r="A346" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F346" s="4">
+        <v>80</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
+      <c r="A347" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" s="4">
+        <v>85</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L347" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+      <c r="A348" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F348" s="4">
+        <v>85</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L348" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
+      <c r="A349" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F349" s="4">
+        <v>90</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M349" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
+      <c r="A350" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" s="4">
+        <v>90</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M350" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
